--- a/Design/DateTable/client_stage_info.xlsx
+++ b/Design/DateTable/client_stage_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SProjectDesign\Design\DateTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\DateTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7530A789-B71D-47A1-B531-D6CDDB954EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88E5E42-2BFA-41B5-A8AE-44DE508811A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!Norma" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>Kind</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,10 @@
   </si>
   <si>
     <t>;레벨 경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage_Icon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -208,9 +212,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -248,7 +252,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -354,7 +358,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -496,7 +500,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -504,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -531,7 +535,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>9</v>
@@ -576,6 +580,16 @@
       </c>
       <c r="I2" s="3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Design/DateTable/client_stage_info.xlsx
+++ b/Design/DateTable/client_stage_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\DateTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SProjectDesign\Design\DateTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88E5E42-2BFA-41B5-A8AE-44DE508811A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314559B9-C1D1-40ED-96D1-C82C15FF1FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!Norma" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>Kind</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,17 @@
   </si>
   <si>
     <t>Stage_Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UsePoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max_UsePoint</t>
+  </si>
+  <si>
+    <t>;최초로 사용 가능한 배치포인트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -520,11 +531,11 @@
     <col min="3" max="3" width="7.5" customWidth="1"/>
     <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="17.5" customWidth="1"/>
-    <col min="9" max="9" width="12.25" customWidth="1"/>
+    <col min="6" max="9" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -549,11 +560,14 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -581,13 +595,16 @@
       <c r="I2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>1</v>
       </c>
@@ -600,10 +617,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F27775-B38A-425D-9D8A-9CD959A261C6}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -677,10 +694,18 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Design/DateTable/client_stage_info.xlsx
+++ b/Design/DateTable/client_stage_info.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SProjectDesign\Design\DateTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314559B9-C1D1-40ED-96D1-C82C15FF1FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E285EB99-F517-4E8B-94FA-72886696E4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
-    <sheet name="!Norma" sheetId="1" r:id="rId1"/>
-    <sheet name="normal_desc" sheetId="2" r:id="rId2"/>
+    <sheet name="!stage" sheetId="1" r:id="rId1"/>
+    <sheet name="!Wave" sheetId="3" r:id="rId2"/>
+    <sheet name="stage_desc" sheetId="2" r:id="rId3"/>
+    <sheet name="wave_desc" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>Kind</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +118,54 @@
   </si>
   <si>
     <t>;최초로 사용 가능한 배치포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;해당 스테이지의 wave 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start_Point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>End_Point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wave_Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>; client_monster_group_info 의 Group 컬럼 값 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>; 해당 스테이지의 wave 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>; 한 스테이지에 발생하는 전체 wave 의 Group 값</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -189,7 +239,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -204,6 +254,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,23 +578,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" customWidth="1"/>
-    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="17.5" customWidth="1"/>
-    <col min="10" max="10" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="17.5" customWidth="1"/>
+    <col min="12" max="12" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -545,29 +607,38 @@
       <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -598,15 +669,28 @@
       <c r="J2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C4">
+      <c r="D3">
         <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -616,11 +700,110 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5550D54B-FFEF-418C-BE1D-80F664047FFB}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1001</v>
+      </c>
+      <c r="D3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1002</v>
+      </c>
+      <c r="D4">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1004</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F27775-B38A-425D-9D8A-9CD959A261C6}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -630,7 +813,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -638,7 +821,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -646,7 +829,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -654,59 +837,116 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E65939-9C01-46E8-9ACE-B15503096FB8}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
